--- a/EP_ASP_YBE_600s.xlsx
+++ b/EP_ASP_YBE_600s.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lutelillo/Desktop/solver_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD8B3A3-43EB-9D41-89BC-71F8BCF7783D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527FFBD-72A6-EB4C-B22C-3EFC3EB2494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6260" yWindow="500" windowWidth="15520" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="337">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -538,27 +551,6 @@
     <t>bombProblems/btuc_bomb_090.sh</t>
   </si>
   <si>
-    <t>yaleProblems/eiter_yale1.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale2.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale3.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale4.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale5.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale7.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale8.sh</t>
-  </si>
-  <si>
     <t>yaleProblems/yale1.sh</t>
   </si>
   <si>
@@ -1040,6 +1032,18 @@
   </si>
   <si>
     <t>bombProblems/btuc_bomb_005.sh</t>
+  </si>
+  <si>
+    <t>Yale Problems - Average</t>
+  </si>
+  <si>
+    <t>Bomb Problems - Average</t>
+  </si>
+  <si>
+    <t>Eligible Problems - Average</t>
+  </si>
+  <si>
+    <t>Total Problems - Average</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176:F176"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4753,7 +4757,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B168">
         <v>1.6400000000000001E-2</v>
@@ -4773,7 +4777,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B169">
         <v>2.1461999999999998E-2</v>
@@ -4793,7 +4797,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B170">
         <v>3.1269999999999999E-2</v>
@@ -4813,7 +4817,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B171">
         <v>1.5709999999999999E-3</v>
@@ -4833,7 +4837,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B172">
         <v>9.6179999999999998E-3</v>
@@ -4853,7 +4857,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B173">
         <v>1.2137999999999999E-2</v>
@@ -4873,7 +4877,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B174">
         <v>1.6400000000000001E-2</v>
@@ -4893,7 +4897,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B175">
         <v>9.5709999999999996E-3</v>
@@ -4913,7 +4917,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B176">
         <v>1.6400000000000001E-2</v>
@@ -4933,7 +4937,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B177">
         <v>581.61699999999996</v>
@@ -4953,7 +4957,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B178">
         <v>600</v>
@@ -4973,7 +4977,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B179">
         <v>600</v>
@@ -4993,7 +4997,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B180">
         <v>600</v>
@@ -5013,7 +5017,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B181">
         <v>600</v>
@@ -5033,7 +5037,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B182">
         <v>600</v>
@@ -5053,7 +5057,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B183">
         <v>600</v>
@@ -5073,7 +5077,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B184">
         <v>600</v>
@@ -5093,7 +5097,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B185">
         <v>600</v>
@@ -5113,7 +5117,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B186">
         <v>600</v>
@@ -5133,7 +5137,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B187">
         <v>600</v>
@@ -5153,7 +5157,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B188">
         <v>600</v>
@@ -5173,7 +5177,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B189">
         <v>600</v>
@@ -5193,7 +5197,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B190">
         <v>600</v>
@@ -5213,7 +5217,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B191">
         <v>600</v>
@@ -5233,7 +5237,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B192">
         <v>600</v>
@@ -5253,7 +5257,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B193">
         <v>600</v>
@@ -5273,7 +5277,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B194">
         <v>600</v>
@@ -5293,7 +5297,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B195">
         <v>600</v>
@@ -5313,7 +5317,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B196">
         <v>600</v>
@@ -5333,7 +5337,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B197">
         <v>600</v>
@@ -5353,7 +5357,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B198">
         <v>600</v>
@@ -5373,7 +5377,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B199">
         <v>600</v>
@@ -5393,7 +5397,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B200">
         <v>600</v>
@@ -5413,7 +5417,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B201">
         <v>600</v>
@@ -5433,7 +5437,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B202">
         <v>8.7416999999999995E-2</v>
@@ -5453,7 +5457,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B203">
         <v>600</v>
@@ -5473,7 +5477,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B204">
         <v>600</v>
@@ -5493,7 +5497,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B205">
         <v>600</v>
@@ -5513,7 +5517,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B206">
         <v>600</v>
@@ -5533,7 +5537,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B207">
         <v>600</v>
@@ -5553,7 +5557,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B208">
         <v>600</v>
@@ -5573,7 +5577,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B209">
         <v>600</v>
@@ -5593,7 +5597,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B210">
         <v>600</v>
@@ -5613,7 +5617,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B211">
         <v>600</v>
@@ -5633,7 +5637,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B212">
         <v>600</v>
@@ -5653,7 +5657,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B213">
         <v>600</v>
@@ -5673,7 +5677,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B214">
         <v>600</v>
@@ -5693,7 +5697,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B215">
         <v>600</v>
@@ -5713,7 +5717,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B216">
         <v>600</v>
@@ -5733,7 +5737,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B217">
         <v>9.9135000000000001E-2</v>
@@ -5753,7 +5757,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B218">
         <v>600</v>
@@ -5773,7 +5777,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B219">
         <v>600</v>
@@ -5793,7 +5797,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B220">
         <v>600</v>
@@ -5813,7 +5817,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B221">
         <v>600</v>
@@ -5833,7 +5837,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B222">
         <v>600</v>
@@ -5853,7 +5857,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B223">
         <v>600</v>
@@ -5873,7 +5877,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B224">
         <v>600</v>
@@ -5893,7 +5897,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B225">
         <v>600</v>
@@ -5913,7 +5917,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B226">
         <v>600</v>
@@ -5933,7 +5937,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B227">
         <v>9.2369000000000007E-2</v>
@@ -5953,7 +5957,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B228">
         <v>600</v>
@@ -5973,7 +5977,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B229">
         <v>600</v>
@@ -5993,7 +5997,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B230">
         <v>600</v>
@@ -6013,7 +6017,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B231">
         <v>600</v>
@@ -6033,7 +6037,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B232">
         <v>600</v>
@@ -6053,7 +6057,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B233">
         <v>600</v>
@@ -6073,7 +6077,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B234">
         <v>9.1481000000000007E-2</v>
@@ -6093,7 +6097,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B235">
         <v>600</v>
@@ -6113,7 +6117,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B236">
         <v>600</v>
@@ -6133,7 +6137,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B237">
         <v>600</v>
@@ -6153,7 +6157,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B238">
         <v>600</v>
@@ -6173,7 +6177,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B239">
         <v>0.115427</v>
@@ -6193,7 +6197,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B240">
         <v>600</v>
@@ -6213,7 +6217,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B241">
         <v>600</v>
@@ -6233,7 +6237,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B242">
         <v>600</v>
@@ -6253,7 +6257,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B243">
         <v>600</v>
@@ -6273,7 +6277,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B244">
         <v>0.15545700000000001</v>
@@ -6293,7 +6297,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B245">
         <v>600</v>
@@ -6313,7 +6317,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B246">
         <v>600</v>
@@ -6333,7 +6337,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B247">
         <v>600</v>
@@ -6353,7 +6357,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B248">
         <v>0.18404000000000001</v>
@@ -6373,7 +6377,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B249">
         <v>600</v>
@@ -6393,7 +6397,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B250">
         <v>600</v>
@@ -6413,7 +6417,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B251">
         <v>600</v>
@@ -6433,7 +6437,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B252">
         <v>0.173067</v>
@@ -6453,7 +6457,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B253">
         <v>600</v>
@@ -6473,7 +6477,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B254">
         <v>600</v>
@@ -6493,7 +6497,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B255">
         <v>0.51227199999999995</v>
@@ -6513,7 +6517,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B256">
         <v>600</v>
@@ -6533,7 +6537,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B257">
         <v>600</v>
@@ -6553,7 +6557,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B258">
         <v>3.1287600000000002</v>
@@ -6573,7 +6577,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B259">
         <v>600</v>
@@ -6593,7 +6597,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B260">
         <v>600</v>
@@ -6613,7 +6617,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B261">
         <v>1.7985199999999999</v>
@@ -6633,7 +6637,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B262">
         <v>600</v>
@@ -6653,7 +6657,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B263">
         <v>600</v>
@@ -6673,7 +6677,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B264">
         <v>2.35622</v>
@@ -6693,7 +6697,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B265">
         <v>600</v>
@@ -6713,7 +6717,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B266">
         <v>474.46100000000001</v>
@@ -6733,7 +6737,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B267">
         <v>4.7027400000000004</v>
@@ -6753,7 +6757,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B268">
         <v>600</v>
@@ -6773,7 +6777,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B269">
         <v>37.764499999999998</v>
@@ -6793,7 +6797,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B270">
         <v>600</v>
@@ -6813,7 +6817,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B271">
         <v>557.33900000000006</v>
@@ -6833,7 +6837,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B272">
         <v>51.380600000000001</v>
@@ -6853,7 +6857,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B273">
         <v>559</v>
@@ -6873,7 +6877,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B274">
         <v>306.07299999999998</v>
@@ -6893,7 +6897,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B275">
         <v>600</v>
@@ -6913,7 +6917,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B276">
         <v>334.36099999999999</v>
@@ -6933,7 +6937,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B277">
         <v>600</v>
@@ -6953,7 +6957,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B278">
         <v>350.89600000000002</v>
@@ -6973,7 +6977,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B279">
         <v>600</v>
@@ -6993,7 +6997,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B280">
         <v>600</v>
@@ -7013,7 +7017,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B281">
         <v>359.41</v>
@@ -7033,7 +7037,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B282">
         <v>600</v>
@@ -7053,7 +7057,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B283">
         <v>389.19400000000002</v>
@@ -7073,7 +7077,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B284">
         <v>600</v>
@@ -7093,7 +7097,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B285">
         <v>413.31400000000002</v>
@@ -7113,7 +7117,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B286">
         <v>600</v>
@@ -7133,7 +7137,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B287">
         <v>409.30900000000003</v>
@@ -7153,7 +7157,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B288">
         <v>439.13799999999998</v>
@@ -7173,7 +7177,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B289">
         <v>600</v>
@@ -7193,7 +7197,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B290">
         <v>478.827</v>
@@ -7213,7 +7217,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B291">
         <v>600</v>
@@ -7233,7 +7237,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B292">
         <v>488.80700000000002</v>
@@ -7253,7 +7257,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B293">
         <v>600</v>
@@ -7273,7 +7277,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B294">
         <v>600</v>
@@ -7293,7 +7297,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B295">
         <v>600</v>
@@ -7313,7 +7317,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B296">
         <v>600</v>
@@ -7333,7 +7337,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B297">
         <v>600</v>
@@ -7353,7 +7357,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B298">
         <v>600</v>
@@ -7373,7 +7377,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B299">
         <v>600</v>
@@ -7393,7 +7397,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B300">
         <v>600</v>
@@ -7413,7 +7417,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B301">
         <v>600</v>
@@ -7433,7 +7437,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B302">
         <v>600</v>
@@ -7453,7 +7457,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B303">
         <v>600</v>
@@ -7473,7 +7477,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B304">
         <v>600</v>
@@ -7493,7 +7497,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B305">
         <v>600</v>
@@ -7513,7 +7517,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B306">
         <v>600</v>
@@ -7533,7 +7537,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B307">
         <v>600</v>
@@ -7553,7 +7557,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B308">
         <v>600</v>
@@ -7573,7 +7577,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B309">
         <v>600</v>
@@ -7593,7 +7597,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B310">
         <v>600</v>
@@ -7613,7 +7617,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B311">
         <v>600</v>
@@ -7633,7 +7637,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B312">
         <v>600</v>
@@ -7653,7 +7657,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B313">
         <v>600</v>
@@ -7673,7 +7677,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B314">
         <v>600</v>
@@ -7693,7 +7697,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B315">
         <v>600</v>
@@ -7713,7 +7717,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B316">
         <v>600</v>
@@ -7733,7 +7737,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B317">
         <v>600</v>
@@ -7753,7 +7757,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B318">
         <v>600</v>
@@ -7773,7 +7777,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B319">
         <v>600</v>
@@ -7793,7 +7797,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B320">
         <v>600</v>
@@ -7813,7 +7817,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B321">
         <v>600</v>
@@ -7836,19 +7840,19 @@
         <v>172</v>
       </c>
       <c r="B322">
-        <v>9.0154999999999999E-2</v>
+        <v>0.14235600000000001</v>
       </c>
       <c r="C322">
-        <v>7.9927999999999999E-2</v>
+        <v>9.5395999999999995E-2</v>
       </c>
       <c r="D322">
-        <v>7.9927999999999999E-2</v>
+        <v>9.5395999999999995E-2</v>
       </c>
       <c r="E322">
-        <v>8.5041499999999992E-2</v>
+        <v>0.118876</v>
       </c>
       <c r="F322">
-        <v>9.0154999999999999E-2</v>
+        <v>0.14235600000000001</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -7856,19 +7860,19 @@
         <v>173</v>
       </c>
       <c r="B323">
-        <v>0.101309</v>
+        <v>0.105299</v>
       </c>
       <c r="C323">
-        <v>0.104286</v>
+        <v>9.5160999999999996E-2</v>
       </c>
       <c r="D323">
-        <v>0.101309</v>
+        <v>9.5160999999999996E-2</v>
       </c>
       <c r="E323">
-        <v>0.1027975</v>
+        <v>0.10023</v>
       </c>
       <c r="F323">
-        <v>0.104286</v>
+        <v>0.105299</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -7876,19 +7880,19 @@
         <v>174</v>
       </c>
       <c r="B324">
-        <v>0.142064</v>
+        <v>9.3029000000000001E-2</v>
       </c>
       <c r="C324">
-        <v>9.1748999999999997E-2</v>
+        <v>0.102089</v>
       </c>
       <c r="D324">
-        <v>9.1748999999999997E-2</v>
+        <v>9.3029000000000001E-2</v>
       </c>
       <c r="E324">
-        <v>0.1169065</v>
+        <v>9.7559000000000007E-2</v>
       </c>
       <c r="F324">
-        <v>0.142064</v>
+        <v>0.102089</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -7896,19 +7900,19 @@
         <v>175</v>
       </c>
       <c r="B325">
-        <v>9.6428E-2</v>
+        <v>0.10202899999999999</v>
       </c>
       <c r="C325">
-        <v>8.6689000000000002E-2</v>
+        <v>9.0646000000000004E-2</v>
       </c>
       <c r="D325">
-        <v>8.6689000000000002E-2</v>
+        <v>9.0646000000000004E-2</v>
       </c>
       <c r="E325">
-        <v>9.1558500000000001E-2</v>
+        <v>9.6337499999999993E-2</v>
       </c>
       <c r="F325">
-        <v>9.6428E-2</v>
+        <v>0.10202899999999999</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -7916,19 +7920,19 @@
         <v>176</v>
       </c>
       <c r="B326">
-        <v>0.12352</v>
+        <v>0.121154</v>
       </c>
       <c r="C326">
-        <v>0.123409</v>
+        <v>0.15567800000000001</v>
       </c>
       <c r="D326">
-        <v>0.123409</v>
+        <v>0.121154</v>
       </c>
       <c r="E326">
-        <v>0.1234645</v>
+        <v>0.13841600000000001</v>
       </c>
       <c r="F326">
-        <v>0.12352</v>
+        <v>0.15567800000000001</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -7936,19 +7940,19 @@
         <v>177</v>
       </c>
       <c r="B327">
-        <v>0.104352</v>
+        <v>0.101572</v>
       </c>
       <c r="C327">
-        <v>0.13408</v>
+        <v>0.113153</v>
       </c>
       <c r="D327">
-        <v>0.104352</v>
+        <v>0.101572</v>
       </c>
       <c r="E327">
-        <v>0.119216</v>
+        <v>0.1073625</v>
       </c>
       <c r="F327">
-        <v>0.13408</v>
+        <v>0.113153</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -7956,159 +7960,55 @@
         <v>178</v>
       </c>
       <c r="B328">
-        <v>0.16325899999999999</v>
+        <v>0.103279</v>
       </c>
       <c r="C328">
-        <v>0.118477</v>
+        <v>9.9221000000000004E-2</v>
       </c>
       <c r="D328">
-        <v>0.118477</v>
+        <v>9.9221000000000004E-2</v>
       </c>
       <c r="E328">
-        <v>0.14086799999999999</v>
+        <v>0.10125000000000001</v>
       </c>
       <c r="F328">
-        <v>0.16325899999999999</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>179</v>
-      </c>
-      <c r="B329">
-        <v>0.14235600000000001</v>
-      </c>
-      <c r="C329">
-        <v>9.5395999999999995E-2</v>
-      </c>
-      <c r="D329">
-        <v>9.5395999999999995E-2</v>
-      </c>
-      <c r="E329">
-        <v>0.118876</v>
-      </c>
-      <c r="F329">
-        <v>0.14235600000000001</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>180</v>
-      </c>
-      <c r="B330">
-        <v>0.105299</v>
-      </c>
-      <c r="C330">
-        <v>9.5160999999999996E-2</v>
-      </c>
-      <c r="D330">
-        <v>9.5160999999999996E-2</v>
-      </c>
-      <c r="E330">
-        <v>0.10023</v>
-      </c>
-      <c r="F330">
-        <v>0.105299</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>181</v>
-      </c>
-      <c r="B331">
-        <v>9.3029000000000001E-2</v>
-      </c>
-      <c r="C331">
-        <v>0.102089</v>
-      </c>
-      <c r="D331">
-        <v>9.3029000000000001E-2</v>
-      </c>
-      <c r="E331">
-        <v>9.7559000000000007E-2</v>
-      </c>
-      <c r="F331">
-        <v>0.102089</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>182</v>
-      </c>
-      <c r="B332">
-        <v>0.10202899999999999</v>
-      </c>
-      <c r="C332">
-        <v>9.0646000000000004E-2</v>
-      </c>
-      <c r="D332">
-        <v>9.0646000000000004E-2</v>
-      </c>
-      <c r="E332">
-        <v>9.6337499999999993E-2</v>
-      </c>
-      <c r="F332">
-        <v>0.10202899999999999</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>183</v>
-      </c>
-      <c r="B333">
-        <v>0.121154</v>
-      </c>
-      <c r="C333">
-        <v>0.15567800000000001</v>
-      </c>
-      <c r="D333">
-        <v>0.121154</v>
-      </c>
-      <c r="E333">
-        <v>0.13841600000000001</v>
-      </c>
-      <c r="F333">
-        <v>0.15567800000000001</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>184</v>
-      </c>
-      <c r="B334">
-        <v>0.101572</v>
-      </c>
-      <c r="C334">
-        <v>0.113153</v>
-      </c>
-      <c r="D334">
-        <v>0.101572</v>
-      </c>
-      <c r="E334">
-        <v>0.1073625</v>
-      </c>
-      <c r="F334">
-        <v>0.113153</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>185</v>
-      </c>
-      <c r="B335">
         <v>0.103279</v>
       </c>
-      <c r="C335">
-        <v>9.9221000000000004E-2</v>
-      </c>
-      <c r="D335">
-        <v>9.9221000000000004E-2</v>
-      </c>
-      <c r="E335">
-        <v>0.10125000000000001</v>
-      </c>
-      <c r="F335">
-        <v>0.103279</v>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>333</v>
+      </c>
+      <c r="B339">
+        <f>AVERAGE(E322:E328)</f>
+        <v>0.10857585714285713</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>334</v>
+      </c>
+      <c r="B340">
+        <f>AVERAGE(E3:E176)</f>
+        <v>327.90025960344832</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>335</v>
+      </c>
+      <c r="B341">
+        <f>AVERAGE(E177:E321)</f>
+        <v>523.10146578965521</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>336</v>
+      </c>
+      <c r="B342">
+        <f>AVERAGE(E3:E328)</f>
+        <v>407.6844102500001</v>
       </c>
     </row>
   </sheetData>
